--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3633.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3633.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.847728158476669</v>
+        <v>1.334738731384277</v>
       </c>
       <c r="B1">
-        <v>2.301553033266286</v>
+        <v>1.612576246261597</v>
       </c>
       <c r="C1">
-        <v>2.36676377070905</v>
+        <v>3.103099584579468</v>
       </c>
       <c r="D1">
-        <v>2.82731930968494</v>
+        <v>1.511473536491394</v>
       </c>
       <c r="E1">
-        <v>1.441533928122461</v>
+        <v>0.8279739618301392</v>
       </c>
     </row>
   </sheetData>
